--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124072a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124072a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência doúltimo roubo que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +559,24 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.341752865770987</v>
+      </c>
+      <c r="D5">
+        <v>2.689196670414098</v>
+      </c>
+      <c r="E5">
+        <v>1.981638726003276</v>
+      </c>
+      <c r="F5">
+        <v>2.959008857202386</v>
+      </c>
+      <c r="G5">
+        <v>4.781174550520285</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -574,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.341752865770987</v>
+        <v>15.68845583553494</v>
       </c>
       <c r="D6">
-        <v>2.689196670414098</v>
+        <v>14.96935705131262</v>
       </c>
       <c r="E6">
-        <v>1.981638726003276</v>
+        <v>11.50974221874566</v>
       </c>
       <c r="F6">
-        <v>2.959008857202386</v>
+        <v>10.47482609939103</v>
       </c>
       <c r="G6">
-        <v>4.781174550520285</v>
+        <v>18.16041978000176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -597,25 +609,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>15.68845583553494</v>
+        <v>11.10974527677868</v>
       </c>
       <c r="D7">
-        <v>14.96935705131262</v>
+        <v>6.657074066709869</v>
       </c>
       <c r="E7">
-        <v>11.50974221874566</v>
+        <v>3.317677192517143</v>
       </c>
       <c r="F7">
-        <v>10.47482609939103</v>
+        <v>6.732640233702479</v>
       </c>
       <c r="G7">
-        <v>18.16041978000176</v>
+        <v>10.87924896257348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>39.60622405266433</v>
+      </c>
+      <c r="D8">
+        <v>19.66448896976965</v>
+      </c>
+      <c r="E8">
+        <v>16.69506289596579</v>
+      </c>
+      <c r="F8">
+        <v>31.88183175273961</v>
+      </c>
+      <c r="G8">
+        <v>40.9084704542643</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -625,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.10974527677868</v>
+        <v>30.37906343651349</v>
       </c>
       <c r="D9">
-        <v>6.657074066709869</v>
+        <v>30.9348211686881</v>
       </c>
       <c r="E9">
-        <v>3.317677192517143</v>
+        <v>18.10337473347079</v>
       </c>
       <c r="F9">
-        <v>6.732640233702479</v>
+        <v>39.46059914523703</v>
       </c>
       <c r="G9">
-        <v>10.87924896257348</v>
+        <v>47.74922438641838</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -648,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>39.60622405266433</v>
+        <v>21.05821816354809</v>
       </c>
       <c r="D10">
-        <v>19.66448896976965</v>
+        <v>17.14684292043089</v>
       </c>
       <c r="E10">
-        <v>16.69506289596579</v>
+        <v>10.65039979224701</v>
       </c>
       <c r="F10">
-        <v>31.88183175273961</v>
+        <v>22.08829951537724</v>
       </c>
       <c r="G10">
-        <v>40.9084704542643</v>
+        <v>51.17728896222732</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -671,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>30.37906343651349</v>
+        <v>24.40675661558538</v>
       </c>
       <c r="D11">
-        <v>30.9348211686881</v>
+        <v>37.50514973284873</v>
       </c>
       <c r="E11">
-        <v>18.10337473347079</v>
+        <v>31.42208117301757</v>
       </c>
       <c r="F11">
-        <v>39.46059914523703</v>
+        <v>43.05945905948133</v>
       </c>
       <c r="G11">
-        <v>47.74922438641838</v>
+        <v>74.80907219375355</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -694,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>21.05821816354809</v>
+        <v>18.23253837484984</v>
       </c>
       <c r="D12">
-        <v>17.14684292043089</v>
+        <v>8.382348371190149</v>
       </c>
       <c r="E12">
-        <v>10.65039979224701</v>
+        <v>3.577016841500531</v>
       </c>
       <c r="F12">
-        <v>22.08829951537724</v>
+        <v>7.60469326631277</v>
       </c>
       <c r="G12">
-        <v>51.17728896222732</v>
+        <v>12.27745487965536</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -717,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>24.40675661558538</v>
+        <v>29.70750713643956</v>
       </c>
       <c r="D13">
-        <v>37.50514973284873</v>
+        <v>23.97393108386284</v>
       </c>
       <c r="E13">
-        <v>31.42208117301757</v>
+        <v>17.6168543343662</v>
       </c>
       <c r="F13">
-        <v>43.05945905948133</v>
+        <v>36.38385889766213</v>
       </c>
       <c r="G13">
-        <v>74.80907219375355</v>
+        <v>66.10657478287396</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -740,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>18.23253837484984</v>
+        <v>38.77441172463313</v>
       </c>
       <c r="D14">
-        <v>8.382348371190149</v>
+        <v>30.81257211838966</v>
       </c>
       <c r="E14">
-        <v>3.577016841500531</v>
+        <v>22.93465985336455</v>
       </c>
       <c r="F14">
-        <v>7.60469326631277</v>
+        <v>26.97586752699146</v>
       </c>
       <c r="G14">
-        <v>12.27745487965536</v>
+        <v>52.27730180539781</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -763,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>29.70750713643956</v>
+        <v>7.121862005914551</v>
       </c>
       <c r="D15">
-        <v>23.97393108386284</v>
+        <v>3.886543680659123</v>
       </c>
       <c r="E15">
-        <v>17.6168543343662</v>
+        <v>3.099850982692986</v>
       </c>
       <c r="F15">
-        <v>36.38385889766213</v>
+        <v>4.037842388464877</v>
       </c>
       <c r="G15">
-        <v>66.10657478287396</v>
+        <v>7.118453407802932</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -786,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>38.77441172463313</v>
+        <v>21.32605520392964</v>
       </c>
       <c r="D16">
-        <v>30.81257211838966</v>
+        <v>20.34312272784309</v>
       </c>
       <c r="E16">
-        <v>22.93465985336455</v>
+        <v>16.59147938279617</v>
       </c>
       <c r="F16">
-        <v>26.97586752699146</v>
+        <v>17.32826774939693</v>
       </c>
       <c r="G16">
-        <v>52.27730180539781</v>
+        <v>29.64455561761456</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -809,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.121862005914551</v>
+        <v>58.76276535501317</v>
       </c>
       <c r="D17">
-        <v>3.886543680659123</v>
+        <v>25.62982647314052</v>
       </c>
       <c r="E17">
-        <v>3.099850982692986</v>
+        <v>12.02234062279656</v>
       </c>
       <c r="F17">
-        <v>4.037842388464877</v>
+        <v>18.27401314875613</v>
       </c>
       <c r="G17">
-        <v>7.118453407802932</v>
+        <v>29.8047424968756</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -832,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>21.32605520392964</v>
+        <v>13.41008161905046</v>
       </c>
       <c r="D18">
-        <v>20.34312272784309</v>
+        <v>7.012439075475243</v>
       </c>
       <c r="E18">
-        <v>16.59147938279617</v>
+        <v>5.413843842879039</v>
       </c>
       <c r="F18">
-        <v>17.32826774939693</v>
+        <v>8.904614549343021</v>
       </c>
       <c r="G18">
-        <v>29.64455561761456</v>
+        <v>17.01659956992305</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -855,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>58.76276535501317</v>
+        <v>28.25496618793884</v>
       </c>
       <c r="D19">
-        <v>25.62982647314052</v>
+        <v>15.34628661876961</v>
       </c>
       <c r="E19">
-        <v>12.02234062279656</v>
+        <v>8.734087187036888</v>
       </c>
       <c r="F19">
-        <v>18.27401314875613</v>
+        <v>19.53874371945887</v>
       </c>
       <c r="G19">
-        <v>29.8047424968756</v>
+        <v>34.0119689962443</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -878,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.41008161905046</v>
+        <v>31.69047106080518</v>
       </c>
       <c r="D20">
-        <v>7.012439075475243</v>
+        <v>14.44042660764118</v>
       </c>
       <c r="E20">
-        <v>5.413843842879039</v>
+        <v>9.231856393907705</v>
       </c>
       <c r="F20">
-        <v>8.904614549343021</v>
+        <v>19.61876320100494</v>
       </c>
       <c r="G20">
-        <v>17.01659956992305</v>
+        <v>23.78519750912653</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -901,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>28.25496618793884</v>
+        <v>14.89493642583297</v>
       </c>
       <c r="D21">
-        <v>15.34628661876961</v>
+        <v>7.533804032198374</v>
       </c>
       <c r="E21">
-        <v>8.734087187036888</v>
+        <v>5.971653335265417</v>
       </c>
       <c r="F21">
-        <v>19.53874371945887</v>
+        <v>7.688815886881983</v>
       </c>
       <c r="G21">
-        <v>34.0119689962443</v>
+        <v>15.9322697664735</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -924,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>31.69047106080518</v>
+        <v>43.9489474581751</v>
       </c>
       <c r="D22">
-        <v>14.44042660764118</v>
+        <v>26.1361042353624</v>
       </c>
       <c r="E22">
-        <v>9.231856393907705</v>
+        <v>13.29694695324012</v>
       </c>
       <c r="F22">
-        <v>19.61876320100494</v>
+        <v>18.96151930030963</v>
       </c>
       <c r="G22">
-        <v>23.78519750912653</v>
+        <v>43.43101670587992</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -947,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.89493642583297</v>
+        <v>23.6152682369835</v>
       </c>
       <c r="D23">
-        <v>7.533804032198374</v>
+        <v>17.45028947878181</v>
       </c>
       <c r="E23">
-        <v>5.971653335265417</v>
+        <v>13.80733413551268</v>
       </c>
       <c r="F23">
-        <v>7.688815886881983</v>
+        <v>22.44283564803653</v>
       </c>
       <c r="G23">
-        <v>15.9322697664735</v>
+        <v>33.82890314624659</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -970,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>43.9489474581751</v>
+        <v>11.05172281185572</v>
       </c>
       <c r="D24">
-        <v>26.1361042353624</v>
+        <v>6.557969338320318</v>
       </c>
       <c r="E24">
-        <v>13.29694695324012</v>
+        <v>6.215538404497461</v>
       </c>
       <c r="F24">
-        <v>18.96151930030963</v>
+        <v>6.878530605219225</v>
       </c>
       <c r="G24">
-        <v>43.43101670587992</v>
+        <v>11.76775964653298</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -993,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>23.6152682369835</v>
+        <v>8.071004920523285</v>
       </c>
       <c r="D25">
-        <v>17.45028947878181</v>
+        <v>5.24889829667714</v>
       </c>
       <c r="E25">
-        <v>13.80733413551268</v>
+        <v>3.952458511208697</v>
       </c>
       <c r="F25">
-        <v>22.44283564803653</v>
+        <v>5.614159400039909</v>
       </c>
       <c r="G25">
-        <v>33.82890314624659</v>
+        <v>8.407984547042487</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1016,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>11.05172281185572</v>
+        <v>15.36992994420551</v>
       </c>
       <c r="D26">
-        <v>6.557969338320318</v>
+        <v>9.586376638948591</v>
       </c>
       <c r="E26">
-        <v>6.215538404497461</v>
+        <v>9.474938257570969</v>
       </c>
       <c r="F26">
-        <v>6.878530605219225</v>
+        <v>12.61405863196692</v>
       </c>
       <c r="G26">
-        <v>11.76775964653298</v>
+        <v>14.54315431220311</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1039,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>8.071004920523285</v>
+        <v>42.86273998515345</v>
       </c>
       <c r="D27">
-        <v>5.24889829667714</v>
+        <v>15.5779517847118</v>
       </c>
       <c r="E27">
-        <v>3.952458511208697</v>
+        <v>13.04921448502479</v>
       </c>
       <c r="F27">
-        <v>5.614159400039909</v>
+        <v>18.16766808497521</v>
       </c>
       <c r="G27">
-        <v>8.407984547042487</v>
+        <v>31.74018718702029</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1062,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>15.36992994420551</v>
+        <v>12.97108439979591</v>
       </c>
       <c r="D28">
-        <v>9.586376638948591</v>
+        <v>10.20190415464151</v>
       </c>
       <c r="E28">
-        <v>9.474938257570969</v>
+        <v>6.782053075644598</v>
       </c>
       <c r="F28">
-        <v>12.61405863196692</v>
+        <v>10.22809919554792</v>
       </c>
       <c r="G28">
-        <v>14.54315431220311</v>
+        <v>17.44690977783372</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1085,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>42.86273998515345</v>
+        <v>12.73541242188989</v>
       </c>
       <c r="D29">
-        <v>15.5779517847118</v>
+        <v>8.161092539179601</v>
       </c>
       <c r="E29">
-        <v>13.04921448502479</v>
+        <v>5.981767277384575</v>
       </c>
       <c r="F29">
-        <v>18.16766808497521</v>
+        <v>8.453107786657528</v>
       </c>
       <c r="G29">
-        <v>31.74018718702029</v>
+        <v>12.10014840044714</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1108,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>12.97108439979591</v>
+        <v>10.29923287203007</v>
       </c>
       <c r="D30">
-        <v>10.20190415464151</v>
+        <v>7.353445250272077</v>
       </c>
       <c r="E30">
-        <v>6.782053075644598</v>
+        <v>6.729372323657277</v>
       </c>
       <c r="F30">
-        <v>10.22809919554792</v>
+        <v>10.06252556818439</v>
       </c>
       <c r="G30">
-        <v>17.44690977783372</v>
+        <v>10.95783679625875</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1131,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>12.73541242188989</v>
+        <v>15.80045011534244</v>
       </c>
       <c r="D31">
-        <v>8.161092539179601</v>
+        <v>10.22361260383132</v>
       </c>
       <c r="E31">
-        <v>5.981767277384575</v>
+        <v>9.194751827039148</v>
       </c>
       <c r="F31">
-        <v>8.453107786657528</v>
+        <v>15.10835396565161</v>
       </c>
       <c r="G31">
-        <v>12.10014840044714</v>
+        <v>15.94576944262893</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1154,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>10.29923287203007</v>
+        <v>50.07203052607851</v>
       </c>
       <c r="D32">
-        <v>7.353445250272077</v>
+        <v>25.69660998035405</v>
       </c>
       <c r="E32">
-        <v>6.729372323657277</v>
+        <v>21.35242819265495</v>
       </c>
       <c r="F32">
-        <v>10.06252556818439</v>
+        <v>37.64670925509534</v>
       </c>
       <c r="G32">
-        <v>10.95783679625875</v>
+        <v>34.50353736875473</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1177,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>15.80045011534244</v>
+        <v>13.23258683336925</v>
       </c>
       <c r="D33">
-        <v>10.22361260383132</v>
+        <v>11.20040572408022</v>
       </c>
       <c r="E33">
-        <v>9.194751827039148</v>
+        <v>10.87921586545095</v>
       </c>
       <c r="F33">
-        <v>15.10835396565161</v>
+        <v>13.80381391544215</v>
       </c>
       <c r="G33">
-        <v>15.94576944262893</v>
+        <v>16.62599965288859</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1200,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>50.07203052607851</v>
+        <v>11.95728163166854</v>
       </c>
       <c r="D34">
-        <v>25.69660998035405</v>
+        <v>7.397714391482391</v>
       </c>
       <c r="E34">
-        <v>21.35242819265495</v>
+        <v>5.985448847535877</v>
       </c>
       <c r="F34">
-        <v>37.64670925509534</v>
+        <v>9.711329462999963</v>
       </c>
       <c r="G34">
-        <v>34.50353736875473</v>
+        <v>13.74532699743435</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1223,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>13.23258683336925</v>
+        <v>32.67507818395239</v>
       </c>
       <c r="D35">
-        <v>11.20040572408022</v>
+        <v>25.88346003313384</v>
       </c>
       <c r="E35">
-        <v>10.87921586545095</v>
+        <v>20.86863490215423</v>
       </c>
       <c r="F35">
-        <v>13.80381391544215</v>
+        <v>28.41826719140372</v>
       </c>
       <c r="G35">
-        <v>16.62599965288859</v>
+        <v>26.48007712465767</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1246,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>11.95728163166854</v>
+        <v>35.96873673582689</v>
       </c>
       <c r="D36">
-        <v>7.397714391482391</v>
+        <v>18.58620210778482</v>
       </c>
       <c r="E36">
-        <v>5.985448847535877</v>
+        <v>13.15840290904645</v>
       </c>
       <c r="F36">
-        <v>9.711329462999963</v>
+        <v>22.50415456125677</v>
       </c>
       <c r="G36">
-        <v>13.74532699743435</v>
+        <v>34.76721199123595</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1269,64 +1299,18 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>32.67507818395239</v>
+        <v>16.24192200373211</v>
       </c>
       <c r="D37">
-        <v>25.88346003313384</v>
+        <v>12.33747158758367</v>
       </c>
       <c r="E37">
-        <v>20.86863490215423</v>
+        <v>10.85860309352716</v>
       </c>
       <c r="F37">
-        <v>28.41826719140372</v>
+        <v>16.58202141407996</v>
       </c>
       <c r="G37">
-        <v>26.48007712465767</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>35.96873673582689</v>
-      </c>
-      <c r="D38">
-        <v>18.58620210778482</v>
-      </c>
-      <c r="E38">
-        <v>13.15840290904645</v>
-      </c>
-      <c r="F38">
-        <v>22.50415456125677</v>
-      </c>
-      <c r="G38">
-        <v>34.76721199123595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>16.24192200373211</v>
-      </c>
-      <c r="D39">
-        <v>12.33747158758367</v>
-      </c>
-      <c r="E39">
-        <v>10.85860309352716</v>
-      </c>
-      <c r="F39">
-        <v>16.58202141407996</v>
-      </c>
-      <c r="G39">
         <v>22.76159529913225</v>
       </c>
     </row>
